--- a/static/database/data.xlsx
+++ b/static/database/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\configuration\static\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\jncm\static\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5360F-9F73-40F3-9050-48374AFB08A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71944E58-F926-4544-B149-515F9B3722C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D58F436-2EA9-4455-AB8E-F3BCCF2958DB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="stack" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">stack!$A$1:$C$10</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">stack!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Language</t>
   </si>
@@ -86,9 +86,6 @@
     <t>CSS</t>
   </si>
   <si>
-    <t>https://getbootstrap.com/</t>
-  </si>
-  <si>
     <t>https://pypi.org/</t>
   </si>
   <si>
@@ -102,6 +99,18 @@
   </si>
   <si>
     <t>https://alpinejs.dev/</t>
+  </si>
+  <si>
+    <t>https://prismjs.com/index.html</t>
+  </si>
+  <si>
+    <t>https://getbootstrap.com/docs/5.2/getting-started/introduction/</t>
+  </si>
+  <si>
+    <t>https://github.com/growth-delta/jncm</t>
+  </si>
+  <si>
+    <t>Infastructure: Repository</t>
   </si>
 </sst>
 </file>
@@ -169,10 +178,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}" name="Query15" displayName="Query15" ref="A1:C10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
-    <sortCondition ref="B1:B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}" name="Query15" displayName="Query15" ref="A1:C12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C12" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition ref="A1:A12"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{709C8F7E-A669-4935-A148-505EA90E9645}" uniqueName="1" name="Language" queryTableFieldId="1"/>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D1751B-C395-49E1-B892-E3E84165DBEA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,79 +515,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,18 +598,40 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
